--- a/biology/Botanique/Seseli_peucedanoides/Seseli_peucedanoides.xlsx
+++ b/biology/Botanique/Seseli_peucedanoides/Seseli_peucedanoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gasparrinia peucedanoides · Séséli faux peucédan, Séséli verdâtre, Gasparrinie faux peucédan
 Seseli peucedanoides (syn. Gasparrinia peucedanoides), le Séséli faux peucédan, Séséli verdâtre ou la Gasparrinie faux peucédan, est une espèce de plantes à fleurs herbacées de la famille des Apiaceae, originaire d'Europe et du Moyen-Orient.
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante vivace frêle[1] de 50 cm à 1 m de haut, d'un vert clair, à souche en fuseau, munie de stolons. La tige est striée, un peu anguleuse, nue et simple à la base, feuillée dans le haut. Les feuilles inférieures sont bipennatiséquées, à segments divisés en lanières courtes, linéaires, mucronulées, à nervures opaques[2].
-Les fleurs sont verdâtres, disposées en ombelles de 10 à 15 rayons, les intérieurs deux à trois fois plus courts que les extérieurs. L'involucre et l'involucelle ont cinq à sept folioles apiculées, inégales. Les pétales ont la nervure dorsale glabre. Les styles sont plus courts que le stylopode. Le fruit est ovoïde, sillonné de vallécules à deux à quatre bandelettes bien distinctes[2].
-Cette espèce est difficile à déterminer ce qui fait que son placement dans un genre varie selon les auteurs : chronologiquement Sium, Selinum, Peucedanum, Bunium, Gasparrinia (dont toutes les espèces sont depuis classées synonymes de Seseli peucedanoides), Silaus et Seseli. Il existe donc de nombreux synonymes (voir infra)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante vivace frêle de 50 cm à 1 m de haut, d'un vert clair, à souche en fuseau, munie de stolons. La tige est striée, un peu anguleuse, nue et simple à la base, feuillée dans le haut. Les feuilles inférieures sont bipennatiséquées, à segments divisés en lanières courtes, linéaires, mucronulées, à nervures opaques.
+Les fleurs sont verdâtres, disposées en ombelles de 10 à 15 rayons, les intérieurs deux à trois fois plus courts que les extérieurs. L'involucre et l'involucelle ont cinq à sept folioles apiculées, inégales. Les pétales ont la nervure dorsale glabre. Les styles sont plus courts que le stylopode. Le fruit est ovoïde, sillonné de vallécules à deux à quatre bandelettes bien distinctes.
+Cette espèce est difficile à déterminer ce qui fait que son placement dans un genre varie selon les auteurs : chronologiquement Sium, Selinum, Peucedanum, Bunium, Gasparrinia (dont toutes les espèces sont depuis classées synonymes de Seseli peucedanoides), Silaus et Seseli. Il existe donc de nombreux synonymes (voir infra).
 </t>
         </is>
       </c>
@@ -545,10 +559,12 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce pousse dans les bois et coteaux rocailleux, surtout calcaires[2]. Elle est présente en Europe et en Moyen-Orient, à l'ouest jusqu'en France métropolitaine, au nord jusqu'au sud de la Russie européenne, à l'est et au sud jusqu'en Iran, en passant par l'Italie, les Carpates, les Balkans, la Turquie et le Caucase[3].
-En France, elle est rare et se limite aux pelouses et ourlets thermophiles neutro- à basiphiles de Bourgogne, du Massif central, des Pyrénées Orientales et elle est très rare dans les Alpes de Haute-Provence[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce pousse dans les bois et coteaux rocailleux, surtout calcaires. Elle est présente en Europe et en Moyen-Orient, à l'ouest jusqu'en France métropolitaine, au nord jusqu'au sud de la Russie européenne, à l'est et au sud jusqu'en Iran, en passant par l'Italie, les Carpates, les Balkans, la Turquie et le Caucase.
+En France, elle est rare et se limite aux pelouses et ourlets thermophiles neutro- à basiphiles de Bourgogne, du Massif central, des Pyrénées Orientales et elle est très rare dans les Alpes de Haute-Provence.
 </t>
         </is>
       </c>
@@ -577,13 +593,85 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Seseli peucedanoides (M.Bieb.) Koso-Pol., 1916[3],[4],[5],[6] ou Gasparrinia peucedanoides (M.Bieb.) Thell., 1926[7],[2] (ou sa variante orthographique : Gasparinia peucedanoides (M.Bieb.) Thell.[8],[9] ; l'orthographe originale est avec deux « r » dans la publication originale du genre[10]). L'espèce a été initialement formellement décrite dans le genre Bunium sous le basionyme Bunium peucedanoides M.Bieb., par le naturaliste allemand Friedrich August Marschall von Bieberstein, en 1808[11].
-Noms communs
-Elle se nomme en français « Séséli faux peucédan[7],[2],[6] », « Séséli verdâtre[7],[2],[6] » ou « Gasparrinie faux peucédan[7] ».
-Synonymes
-Seseli peucedanoides a pour synonymes[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Seseli peucedanoides (M.Bieb.) Koso-Pol., 1916 ou Gasparrinia peucedanoides (M.Bieb.) Thell., 1926, (ou sa variante orthographique : Gasparinia peucedanoides (M.Bieb.) Thell., ; l'orthographe originale est avec deux « r » dans la publication originale du genre). L'espèce a été initialement formellement décrite dans le genre Bunium sous le basionyme Bunium peucedanoides M.Bieb., par le naturaliste allemand Friedrich August Marschall von Bieberstein, en 1808.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Seseli_peucedanoides</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Seseli_peucedanoides</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Noms communs</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle se nomme en français « Séséli faux peucédan », « Séséli verdâtre » ou « Gasparrinie faux peucédan ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Seseli_peucedanoides</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Seseli_peucedanoides</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Seseli peucedanoides a pour synonymes :
 (synonymes homotypiques)
 Bunium peucedanoides M.Bieb., 1808) (basionyme)
 Foeniculum peucedanoides (M.Bieb.) Benth. &amp; Hook.f. ex Janka, 1878
